--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2199781.307386463</v>
+        <v>-2201778.980399307</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>73.20748195182259</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>30.62303270711554</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>282.9591082179072</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>28.21809999282058</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>394.0122582088615</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>246.7134733806374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>124.1699884042479</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>131.8808934717674</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>210.3214022536656</v>
+        <v>31.14718956454777</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55.84003136202615</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>123.4514883688806</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,13 +1531,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1546,7 +1546,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>59.01585011841133</v>
+        <v>56.55288253563526</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>112.1823761231893</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>62.35304823392149</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1901,7 +1901,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,22 +2002,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>93.76758034283721</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>50.16301885440515</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>23.86136335150725</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>139.1477730630666</v>
       </c>
     </row>
     <row r="23">
@@ -2333,10 +2333,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C25" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D25" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E25" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G25" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H25" t="n">
-        <v>80.78193823789545</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415187</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S25" t="n">
         <v>129.7889198539626</v>
@@ -2530,19 +2530,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U25" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V25" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W25" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X25" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224537</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>77.28915789329062</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H28" t="n">
         <v>80.7819382378955</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415187</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2767,7 +2767,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U28" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V28" t="n">
         <v>184.0057531941874</v>
@@ -2776,7 +2776,7 @@
         <v>218.3911082069504</v>
       </c>
       <c r="X28" t="n">
-        <v>157.5777652593956</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
         <v>150.4527632224542</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898687</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G31" t="n">
         <v>98.36167833373696</v>
       </c>
       <c r="H31" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539629</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T31" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689361</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
         <v>184.0057531941874</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373661</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3241,19 +3241,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689363</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463133</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539622</v>
       </c>
       <c r="T37" t="n">
         <v>153.4156709287486</v>
@@ -3481,16 +3481,16 @@
         <v>218.105462268937</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3673,13 +3673,13 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789537</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463139</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3715,7 +3715,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689363</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V40" t="n">
         <v>184.0057531941874</v>
@@ -3913,7 +3913,7 @@
         <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463134</v>
@@ -3946,13 +3946,13 @@
         <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T43" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689363</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V43" t="n">
         <v>184.0057531941874</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V46" t="n">
         <v>184.0057531941873</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1791.109440255352</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2568.173450082228</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2568.173450082228</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2314.41166472032</v>
       </c>
       <c r="V2" t="n">
-        <v>2181.248772231163</v>
+        <v>2314.41166472032</v>
       </c>
       <c r="W2" t="n">
-        <v>2181.248772231163</v>
+        <v>2314.41166472032</v>
       </c>
       <c r="X2" t="n">
-        <v>2181.248772231163</v>
+        <v>2028.59438369213</v>
       </c>
       <c r="Y2" t="n">
-        <v>1791.109440255352</v>
+        <v>1638.455051716319</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,7 +4413,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2254.871116938368</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>2254.871116938368</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>2254.871116938368</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>2254.871116938368</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>2254.871116938368</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2226.367985632488</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>2482.860667836385</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>2254.871116938368</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y4" t="n">
-        <v>2254.871116938368</v>
+        <v>217.9192350259435</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1018.106519274536</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="C5" t="n">
-        <v>1018.106519274536</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>851.6468184889688</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>465.8585658907246</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W5" t="n">
-        <v>1640.777806202926</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X5" t="n">
-        <v>1267.312047941846</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="Y5" t="n">
-        <v>1018.106519274536</v>
+        <v>1209.912517095719</v>
       </c>
     </row>
     <row r="6">
@@ -4656,13 +4656,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>380.6275373157412</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>380.6275373157412</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W7" t="n">
-        <v>380.6275373157412</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X7" t="n">
-        <v>380.6275373157412</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y7" t="n">
-        <v>380.6275373157412</v>
+        <v>473.4444960005476</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1957.780595683986</v>
+        <v>1022.045772923999</v>
       </c>
       <c r="C8" t="n">
-        <v>1588.818078743575</v>
+        <v>1022.045772923999</v>
       </c>
       <c r="D8" t="n">
-        <v>1230.552380136824</v>
+        <v>663.7800743172488</v>
       </c>
       <c r="E8" t="n">
-        <v>844.7641275385799</v>
+        <v>663.7800743172488</v>
       </c>
       <c r="F8" t="n">
-        <v>433.7782227489724</v>
+        <v>252.7941695276413</v>
       </c>
       <c r="G8" t="n">
-        <v>419.8548186875633</v>
+        <v>238.8707654662322</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>2344.380435748108</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y8" t="n">
-        <v>2344.380435748108</v>
+        <v>1408.645612988121</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4857,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.942782082032</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4996,16 +4996,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084169</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y10" t="n">
-        <v>279.3468541648867</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,25 +5024,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,13 +5118,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
         <v>1228.513823643586</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1089.278254829645</v>
+        <v>641.8707282937978</v>
       </c>
       <c r="C13" t="n">
-        <v>920.3420719017383</v>
+        <v>472.9345453658909</v>
       </c>
       <c r="D13" t="n">
-        <v>770.2254324894026</v>
+        <v>472.9345453658909</v>
       </c>
       <c r="E13" t="n">
-        <v>622.3123389070095</v>
+        <v>472.9345453658909</v>
       </c>
       <c r="F13" t="n">
-        <v>475.4223914090991</v>
+        <v>472.9345453658909</v>
       </c>
       <c r="G13" t="n">
-        <v>307.2470697289197</v>
+        <v>304.7592236857115</v>
       </c>
       <c r="H13" t="n">
-        <v>156.8290612768629</v>
+        <v>154.3412152336548</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X13" t="n">
-        <v>1270.926719659885</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="Y13" t="n">
-        <v>1270.926719659885</v>
+        <v>823.5191931240375</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5297,28 +5297,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636247</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.3337308726216</v>
+        <v>809.2953582963253</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>640.3591753684184</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>490.2425359560826</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>490.2425359560826</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1012.227968258999</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V16" t="n">
-        <v>757.5434800531123</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W16" t="n">
-        <v>468.1263100161517</v>
+        <v>809.2953582963253</v>
       </c>
       <c r="X16" t="n">
-        <v>468.1263100161517</v>
+        <v>809.2953582963253</v>
       </c>
       <c r="Y16" t="n">
-        <v>247.3337308726216</v>
+        <v>809.2953582963253</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,13 +5498,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822463</v>
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5540,25 +5540,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>412.607977814708</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.440640161986</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441948</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>394.223678370532</v>
+        <v>510.5251492115494</v>
       </c>
       <c r="C19" t="n">
-        <v>394.223678370532</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5674,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1448.246554543352</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1159.11791575691</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>904.4334275510228</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>615.0162575140621</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X19" t="n">
-        <v>615.0162575140621</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="Y19" t="n">
-        <v>394.223678370532</v>
+        <v>510.5251492115494</v>
       </c>
     </row>
     <row r="20">
@@ -5741,22 +5741,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5768,7 +5768,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>692.753134944335</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="C22" t="n">
-        <v>523.8169520164281</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="D22" t="n">
-        <v>523.8169520164281</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E22" t="n">
-        <v>523.8169520164281</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185177</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
         <v>208.7516828383384</v>
@@ -5938,22 +5938,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1163.818769811535</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.818769811535</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V22" t="n">
-        <v>1163.818769811535</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="W22" t="n">
-        <v>874.4015997745747</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="X22" t="n">
-        <v>874.4015997745747</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="Y22" t="n">
-        <v>874.4015997745747</v>
+        <v>503.5547239186418</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -6005,7 +6005,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6069,25 +6069,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C25" t="n">
         <v>559.3441472229674</v>
@@ -6133,10 +6133,10 @@
         <v>398.9545963083207</v>
       </c>
       <c r="F25" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G25" t="n">
-        <v>221.5295092103132</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H25" t="n">
         <v>139.9315917982973</v>
@@ -6145,7 +6145,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K25" t="n">
         <v>394.6863306254957</v>
@@ -6187,10 +6187,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X25" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="26">
@@ -6200,55 +6200,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231263</v>
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G28" t="n">
         <v>221.529509210313</v>
@@ -6379,13 +6379,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L28" t="n">
         <v>709.8489468649691</v>
@@ -6415,19 +6415,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U28" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W28" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="29">
@@ -6443,25 +6443,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6473,7 +6473,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E31" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G31" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
@@ -6619,13 +6619,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6643,13 +6643,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
         <v>1489.892037025262</v>
@@ -6661,10 +6661,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="32">
@@ -6686,49 +6686,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229675</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504515</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,7 +6856,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254956</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6914,28 +6914,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514085</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1099.417155020476</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M36" t="n">
-        <v>1406.737288300438</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N36" t="n">
-        <v>1736.599915964471</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7120,7 +7120,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,13 +7172,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7436,10 +7436,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7609,7 +7609,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
         <v>772.2886129010319</v>
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7731,22 +7731,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,22 +7801,22 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525395</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254952</v>
       </c>
       <c r="L46" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649688</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8061,10 +8061,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>127.646125010065</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776759</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>234.4116509503173</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>444.488938686166</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>253.7371603504743</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,28 +10428,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>306.1147370139963</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11379,7 +11379,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22562,10 +22562,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,19 +22598,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>297.1292257630193</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>86.77199246056179</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>17.49548950841407</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>48.85803851587073</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22747,16 +22747,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>51.40339534586067</v>
+        <v>53.86636292863674</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23473,16 +23473,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>33.23867189974199</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>223.8843041646558</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,22 +23890,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>73.47924075579063</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23941,7 +23941,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>171.3845422039841</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24178,22 +24178,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>197.686197706882</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>79.43688028902815</v>
       </c>
     </row>
     <row r="23">
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>8.810729923425242e-13</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1286758.5990702</v>
+        <v>1286758.599070199</v>
       </c>
     </row>
     <row r="3">
@@ -26320,25 +26320,25 @@
         <v>20526.04424660708</v>
       </c>
       <c r="E2" t="n">
+        <v>19551.45298688543</v>
+      </c>
+      <c r="F2" t="n">
         <v>19551.45298688544</v>
       </c>
-      <c r="F2" t="n">
-        <v>19551.45298688543</v>
-      </c>
       <c r="G2" t="n">
-        <v>19551.45298688543</v>
+        <v>19551.45298688544</v>
       </c>
       <c r="H2" t="n">
         <v>19551.45298688544</v>
       </c>
       <c r="I2" t="n">
-        <v>20526.04424660707</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="J2" t="n">
-        <v>20526.04424660707</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="K2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="L2" t="n">
         <v>20526.0442466071</v>
@@ -26347,13 +26347,13 @@
         <v>20526.0442466071</v>
       </c>
       <c r="N2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="O2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="P2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,28 +26384,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.5121037125</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>54505.51210371252</v>
+        <v>54505.5121037125</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26424,31 +26424,31 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="J4" t="n">
-        <v>37464.45686275962</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="K4" t="n">
         <v>37464.45686275957</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="N4" t="n">
         <v>37464.45686275957</v>
@@ -26457,7 +26457,7 @@
         <v>37464.45686275957</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
     </row>
     <row r="5">
@@ -26482,22 +26482,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="J5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-762486.5762396586</v>
+        <v>-762699.9882295371</v>
       </c>
       <c r="C6" t="n">
         <v>-219107.992068025</v>
@@ -26528,19 +26528,19 @@
         <v>-219107.992068025</v>
       </c>
       <c r="E6" t="n">
-        <v>-612641.5790601663</v>
+        <v>-612739.0381861385</v>
       </c>
       <c r="F6" t="n">
-        <v>-87481.54258327035</v>
+        <v>-87579.00170924244</v>
       </c>
       <c r="G6" t="n">
-        <v>-87481.54258327035</v>
+        <v>-87579.00170924245</v>
       </c>
       <c r="H6" t="n">
-        <v>-87481.54258327027</v>
+        <v>-87579.00170924245</v>
       </c>
       <c r="I6" t="n">
-        <v>-169159.0305398905</v>
+        <v>-169159.0305398904</v>
       </c>
       <c r="J6" t="n">
         <v>-291076.7376287708</v>
@@ -26555,10 +26555,10 @@
         <v>-249454.533670015</v>
       </c>
       <c r="N6" t="n">
-        <v>-169159.0305398904</v>
+        <v>-169159.0305398903</v>
       </c>
       <c r="O6" t="n">
-        <v>-114653.5184361778</v>
+        <v>-114653.5184361779</v>
       </c>
       <c r="P6" t="n">
         <v>-114653.5184361779</v>
@@ -26704,19 +26704,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J2" t="n">
         <v>68.13189012964062</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964064</v>
@@ -26725,7 +26725,7 @@
         <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26744,31 +26744,31 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,19 +26935,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>101.2082308571489</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>97.57592413069844</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>139.0917022662303</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,13 +27619,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>12.86378753284993</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>139.5244652754162</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>22.26397424232127</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27822,7 +27822,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>120.2567498520606</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>113.6013705106916</v>
+        <v>292.7755831998094</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,13 +27910,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>123.9919488199112</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>163.0715099677104</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="26">
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31844,7 +31844,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31853,10 +31853,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31932,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31944,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31996,40 +31996,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,10 +32069,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32081,7 +32081,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32090,10 +32090,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32169,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32181,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32403,10 +32403,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,10 +34781,10 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>410.0098272511731</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>483.6693559063415</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36376,10 +36376,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>754.9133157366322</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K25" t="n">
         <v>219.8343186595512</v>
@@ -36595,7 +36595,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>642.8663885318339</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36762,7 +36762,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N28" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
         <v>304.3692416502435</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>460.8305752819989</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -36999,7 +36999,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
         <v>304.3692416502435</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,19 +37306,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>555.3724419700205</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
